--- a/reports/prelim_thermal_analysis.xlsx
+++ b/reports/prelim_thermal_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\m3dd\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dillonlabonte/Desktop/m3dd/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB527FF-932D-4AD6-9BC2-C92650617C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8407A2-C9B4-0445-8582-8823DE6B2161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="1908" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1455,15 +1455,15 @@
   <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>7.7928763197898437E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K14">
         <v>260</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1658,12 +1658,13 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.15240000000000001</v>
+        <f>0.1524/2</f>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1687,13 +1688,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18">
         <f>B17/(B16*B8)</f>
-        <v>5.4813893129352564</v>
+        <v>2.7406946564676282</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1705,7 +1706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>33</v>
       </c>
@@ -1716,13 +1717,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20">
         <f>SUM(B18,B12,B11)</f>
-        <v>5.5671109524529445</v>
+        <v>2.8264162959853167</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -1732,13 +1733,13 @@
         <v>0.75166731084555194</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21">
         <f>(B3-B4)/B20</f>
-        <v>10.382404894325401</v>
+        <v>20.449924550074229</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -1748,7 +1749,7 @@
         <v>4.9484764630665513E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>38</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>0.88687371499390577</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>39</v>
       </c>

--- a/reports/prelim_thermal_analysis.xlsx
+++ b/reports/prelim_thermal_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dillonlabonte/Desktop/m3dd/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boothm\Documents\GitHub\m3dd\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8407A2-C9B4-0445-8582-8823DE6B2161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34EB21B-0329-451B-9542-96A34ACBC066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1455,15 +1455,15 @@
   <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>7.7928763197898437E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K14">
         <v>260</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>33</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0.75166731084555194</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>4.9484764630665513E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>38</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0.88687371499390577</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>39</v>
       </c>
